--- a/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B14748AC-84F7-4C23-B3BB-4A5B43D69B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C36143-955A-4A02-9ED4-0EAC72F1A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5B161ECB-48D8-4A3A-8CEA-499C8D706A8E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B4595540-E697-4C18-A139-2A180243A032}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>79,14%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>20,86%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>23,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>26,59%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
     <t>79,72%</t>
   </si>
   <si>
@@ -419,6 +419,114 @@
     <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
   </si>
   <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
     <t>85,09%</t>
   </si>
   <si>
@@ -467,58 +575,58 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>78,73%</t>
@@ -575,114 +683,6 @@
     <t>27,19%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
     <t>81,09%</t>
   </si>
   <si>
@@ -740,6 +740,114 @@
     <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
   </si>
   <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
     <t>82,28%</t>
   </si>
   <si>
@@ -794,58 +902,58 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>80,34%</t>
@@ -902,114 +1010,6 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
     <t>80,44%</t>
   </si>
   <si>
@@ -1067,6 +1067,90 @@
     <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
     <t>73,35%</t>
   </si>
   <si>
@@ -1121,52 +1205,58 @@
     <t>33,15%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>80,54%</t>
@@ -1221,96 +1311,6 @@
   </si>
   <si>
     <t>25,35%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
   </si>
   <si>
     <t>80,15%</t>
@@ -1750,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF50AE11-1526-4FED-A572-81F308CBF589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B7F782-81AF-426D-923F-29EBFE980177}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>142388</v>
+        <v>15166</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1883,10 +1883,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>134955</v>
+        <v>16971</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1898,10 +1898,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>277343</v>
+        <v>32137</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1919,10 +1919,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>37528</v>
+        <v>7020</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1934,10 +1934,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>30398</v>
+        <v>2533</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1949,10 +1949,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>67926</v>
+        <v>9553</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1970,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>179916</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1985,10 +1985,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2000,10 +2000,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>345269</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2178,10 +2178,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D10" s="7">
-        <v>146855</v>
+        <v>142388</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2193,10 +2193,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I10" s="7">
-        <v>141775</v>
+        <v>134955</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2208,10 +2208,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="N10" s="7">
-        <v>288629</v>
+        <v>277343</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2229,10 +2229,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>34451</v>
+        <v>37528</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2244,10 +2244,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>50768</v>
+        <v>30398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2259,10 +2259,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N11" s="7">
-        <v>85219</v>
+        <v>67926</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2280,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>181306</v>
+        <v>179916</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2295,10 +2295,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>192543</v>
+        <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2310,10 +2310,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="N12" s="7">
-        <v>373848</v>
+        <v>345269</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2333,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="D13" s="7">
-        <v>15166</v>
+        <v>108341</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2348,10 +2348,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>16971</v>
+        <v>93818</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2363,10 +2363,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="N13" s="7">
-        <v>32137</v>
+        <v>202159</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2384,10 +2384,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>7020</v>
+        <v>25455</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2399,10 +2399,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>2533</v>
+        <v>30759</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2414,10 +2414,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>9553</v>
+        <v>56214</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2435,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>133796</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2450,10 +2450,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2465,10 +2465,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>258373</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2488,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="D16" s="7">
-        <v>108341</v>
+        <v>146855</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2503,10 +2503,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="I16" s="7">
-        <v>93818</v>
+        <v>141775</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2518,10 +2518,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="N16" s="7">
-        <v>202159</v>
+        <v>288629</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2539,10 +2539,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>25455</v>
+        <v>34451</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2554,10 +2554,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>30759</v>
+        <v>50768</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2569,10 +2569,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="N17" s="7">
-        <v>56214</v>
+        <v>85219</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2590,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>133796</v>
+        <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2605,10 +2605,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>124577</v>
+        <v>192543</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2620,10 +2620,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N18" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2808,7 +2808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1C2F0B-5DE3-4F82-ACB4-A43403D895AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E12ED2-D698-47C1-9828-317F0DE6A01D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>174119</v>
+        <v>20880</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
@@ -2941,10 +2941,10 @@
         <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>156514</v>
+        <v>19886</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2956,19 +2956,19 @@
         <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>493</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>330632</v>
+        <v>40766</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2977,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>30505</v>
+        <v>3574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>33269</v>
+        <v>1617</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>63775</v>
+        <v>5191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>204624</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3043,10 +3043,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>189783</v>
+        <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3058,10 +3058,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>588</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>394407</v>
+        <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3087,13 +3087,13 @@
         <v>95513</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -3102,13 +3102,13 @@
         <v>80480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -3117,13 +3117,13 @@
         <v>175993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3138,13 @@
         <v>25387</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -3153,13 +3153,13 @@
         <v>26413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -3168,13 +3168,13 @@
         <v>51800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3236,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D10" s="7">
-        <v>160804</v>
+        <v>174119</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>151221</v>
+        <v>156514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="N10" s="7">
-        <v>312025</v>
+        <v>330632</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3287,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>43438</v>
+        <v>30505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>51057</v>
+        <v>33269</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>94495</v>
+        <v>63775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,10 +3338,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D12" s="7">
-        <v>204242</v>
+        <v>204624</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3353,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="I12" s="7">
-        <v>202278</v>
+        <v>189783</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3368,10 +3368,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="N12" s="7">
-        <v>406520</v>
+        <v>394407</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3391,10 +3391,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7">
-        <v>20880</v>
+        <v>124299</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>178</v>
@@ -3406,10 +3406,10 @@
         <v>180</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="I13" s="7">
-        <v>19886</v>
+        <v>115146</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>181</v>
@@ -3421,10 +3421,10 @@
         <v>183</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>370</v>
       </c>
       <c r="N13" s="7">
-        <v>40766</v>
+        <v>239446</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>184</v>
@@ -3442,10 +3442,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>3574</v>
+        <v>31296</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>187</v>
@@ -3457,10 +3457,10 @@
         <v>189</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>1617</v>
+        <v>27454</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>190</v>
@@ -3472,10 +3472,10 @@
         <v>192</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>5191</v>
+        <v>58749</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>193</v>
@@ -3493,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>155595</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3508,10 +3508,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>21503</v>
+        <v>142600</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3523,10 +3523,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>45957</v>
+        <v>298195</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3546,10 +3546,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D16" s="7">
-        <v>124299</v>
+        <v>160804</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>196</v>
@@ -3561,10 +3561,10 @@
         <v>198</v>
       </c>
       <c r="H16" s="7">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7">
-        <v>115146</v>
+        <v>151221</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>199</v>
@@ -3576,10 +3576,10 @@
         <v>201</v>
       </c>
       <c r="M16" s="7">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="N16" s="7">
-        <v>239446</v>
+        <v>312025</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>202</v>
@@ -3597,10 +3597,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>31296</v>
+        <v>43438</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>205</v>
@@ -3612,10 +3612,10 @@
         <v>207</v>
       </c>
       <c r="H17" s="7">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I17" s="7">
-        <v>27454</v>
+        <v>51057</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>208</v>
@@ -3627,10 +3627,10 @@
         <v>210</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>58749</v>
+        <v>94495</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>211</v>
@@ -3648,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="D18" s="7">
-        <v>155595</v>
+        <v>204242</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3663,10 +3663,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="I18" s="7">
-        <v>142600</v>
+        <v>202278</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3678,10 +3678,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="N18" s="7">
-        <v>298195</v>
+        <v>406520</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3866,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30494EEF-B8BD-43C0-A49C-DE4B8E7BBC58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F1F69-C483-4B28-90C4-8B54743309E8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3984,10 +3984,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>171748</v>
+        <v>21536</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3999,10 +3999,10 @@
         <v>235</v>
       </c>
       <c r="H4" s="7">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>156955</v>
+        <v>14429</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -4014,10 +4014,10 @@
         <v>238</v>
       </c>
       <c r="M4" s="7">
-        <v>501</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>328703</v>
+        <v>35965</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -4035,10 +4035,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>36982</v>
+        <v>4038</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -4050,10 +4050,10 @@
         <v>244</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>36248</v>
+        <v>6418</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -4065,10 +4065,10 @@
         <v>247</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>73230</v>
+        <v>10456</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -4086,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>208730</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>193203</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4116,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>620</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>401933</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4294,10 +4294,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="D10" s="7">
-        <v>146483</v>
+        <v>171748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4309,10 +4309,10 @@
         <v>271</v>
       </c>
       <c r="H10" s="7">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="I10" s="7">
-        <v>150672</v>
+        <v>156955</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4324,10 +4324,10 @@
         <v>274</v>
       </c>
       <c r="M10" s="7">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="N10" s="7">
-        <v>297156</v>
+        <v>328703</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4345,10 +4345,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>35856</v>
+        <v>36982</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4360,10 +4360,10 @@
         <v>280</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>37533</v>
+        <v>36248</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4375,10 +4375,10 @@
         <v>283</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>73388</v>
+        <v>73230</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4396,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>182339</v>
+        <v>208730</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4411,10 +4411,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>188205</v>
+        <v>193203</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +4426,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>512</v>
+        <v>620</v>
       </c>
       <c r="N12" s="7">
-        <v>370544</v>
+        <v>401933</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4449,10 +4449,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>21536</v>
+        <v>107643</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4464,10 +4464,10 @@
         <v>289</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I13" s="7">
-        <v>14429</v>
+        <v>110732</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4479,10 +4479,10 @@
         <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="N13" s="7">
-        <v>35965</v>
+        <v>218375</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>293</v>
@@ -4500,10 +4500,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>4038</v>
+        <v>35868</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>296</v>
@@ -4515,10 +4515,10 @@
         <v>298</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>6418</v>
+        <v>26308</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>299</v>
@@ -4530,10 +4530,10 @@
         <v>301</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="N14" s="7">
-        <v>10456</v>
+        <v>62176</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -4551,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>143511</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4566,10 +4566,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>137040</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4581,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>280551</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4604,10 +4604,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="D16" s="7">
-        <v>107643</v>
+        <v>146483</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>305</v>
@@ -4619,10 +4619,10 @@
         <v>307</v>
       </c>
       <c r="H16" s="7">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="I16" s="7">
-        <v>110732</v>
+        <v>150672</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>308</v>
@@ -4634,10 +4634,10 @@
         <v>310</v>
       </c>
       <c r="M16" s="7">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="N16" s="7">
-        <v>218375</v>
+        <v>297156</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>311</v>
@@ -4655,10 +4655,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>35868</v>
+        <v>35856</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>314</v>
@@ -4670,10 +4670,10 @@
         <v>316</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>26308</v>
+        <v>37533</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>317</v>
@@ -4685,10 +4685,10 @@
         <v>319</v>
       </c>
       <c r="M17" s="7">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>62176</v>
+        <v>73388</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>320</v>
@@ -4706,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D18" s="7">
-        <v>143511</v>
+        <v>182339</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4721,10 +4721,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>137040</v>
+        <v>188205</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4736,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="N18" s="7">
-        <v>280551</v>
+        <v>370544</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4924,7 +4924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F268302E-F769-4ABC-AC94-B2DAE612E07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3173AB2-197F-4AA9-B34F-256AD4BCD1EA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5042,10 +5042,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>35661</v>
+        <v>4134</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>342</v>
@@ -5054,37 +5054,37 @@
         <v>343</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4023</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H4" s="7">
-        <v>37</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22900</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8157</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M4" s="7">
-        <v>89</v>
-      </c>
-      <c r="N4" s="7">
-        <v>58561</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,49 +5093,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>12957</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>540</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1076</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6195</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M5" s="7">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7">
-        <v>19152</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,10 +5144,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5159,10 +5159,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5174,10 +5174,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5203,13 +5203,13 @@
         <v>14217</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5218,13 +5218,13 @@
         <v>9135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -5233,13 +5233,13 @@
         <v>23351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5254,13 @@
         <v>1668</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5269,13 +5269,13 @@
         <v>3202</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5284,13 +5284,13 @@
         <v>4870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,49 +5352,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>22069</v>
+        <v>35661</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H10" s="7">
+        <v>37</v>
+      </c>
+      <c r="I10" s="7">
+        <v>22900</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M10" s="7">
+        <v>89</v>
+      </c>
+      <c r="N10" s="7">
+        <v>58561</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>24366</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M10" s="7">
-        <v>69</v>
-      </c>
-      <c r="N10" s="7">
-        <v>46435</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5403,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>5332</v>
+        <v>12957</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6195</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M11" s="7">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7">
+        <v>19152</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4241</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9573</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,10 +5454,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5469,10 +5469,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5484,10 +5484,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5507,49 +5507,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>4134</v>
+        <v>25253</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19694</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M13" s="7">
+        <v>61</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44947</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4023</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M13" s="7">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8157</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,46 +5558,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>536</v>
+        <v>4599</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5627</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>540</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10226</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1076</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>405</v>
@@ -5609,10 +5609,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5624,10 +5624,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5639,10 +5639,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5665,7 +5665,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>25253</v>
+        <v>22069</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>406</v>
@@ -5677,10 +5677,10 @@
         <v>408</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>19694</v>
+        <v>24366</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>409</v>
@@ -5692,10 +5692,10 @@
         <v>411</v>
       </c>
       <c r="M16" s="7">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N16" s="7">
-        <v>44947</v>
+        <v>46435</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>412</v>
@@ -5713,10 +5713,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>4599</v>
+        <v>5332</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>415</v>
@@ -5728,10 +5728,10 @@
         <v>417</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>5627</v>
+        <v>4241</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>418</v>
@@ -5743,10 +5743,10 @@
         <v>420</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>10226</v>
+        <v>9573</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>421</v>
@@ -5764,10 +5764,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5779,10 +5779,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5794,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5829,7 +5829,7 @@
         <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -5877,7 +5877,7 @@
         <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>433</v>

--- a/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C36143-955A-4A02-9ED4-0EAC72F1A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10036A3B-3F71-40CC-8DE3-636AEEE6E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B4595540-E697-4C18-A139-2A180243A032}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7707D8E6-AE29-4FE2-BC65-BF0F892F9B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1228 +137,1213 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>71,88%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>84,32%</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1354,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1465,39 +1450,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1549,7 +1534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1660,13 +1645,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1675,6 +1653,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1739,19 +1724,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B7F782-81AF-426D-923F-29EBFE980177}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14473D-C6EA-4294-A879-EEBFE453B237}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1868,10 +1873,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>15166</v>
+        <v>7020</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1883,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>16971</v>
+        <v>2533</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1898,10 +1903,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>32137</v>
+        <v>9553</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1919,10 +1924,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>7020</v>
+        <v>15166</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1934,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>2533</v>
+        <v>16971</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1949,10 +1954,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>9553</v>
+        <v>32137</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2023,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>84700</v>
+        <v>22111</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2038,10 +2043,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>70859</v>
+        <v>25182</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2053,10 +2058,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>155559</v>
+        <v>47293</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2074,10 +2079,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>22111</v>
+        <v>84700</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2089,10 +2094,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="I8" s="7">
-        <v>25182</v>
+        <v>70859</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2104,10 +2109,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="N8" s="7">
-        <v>47293</v>
+        <v>155559</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2178,10 +2183,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>142388</v>
+        <v>37528</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2193,10 +2198,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>134955</v>
+        <v>30398</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2208,10 +2213,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>277343</v>
+        <v>67926</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2229,10 +2234,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>37528</v>
+        <v>142388</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2244,10 +2249,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>30398</v>
+        <v>134955</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2259,10 +2264,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>106</v>
+        <v>433</v>
       </c>
       <c r="N11" s="7">
-        <v>67926</v>
+        <v>277343</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2333,10 +2338,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>108341</v>
+        <v>25455</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2348,10 +2353,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>93818</v>
+        <v>30759</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2363,10 +2368,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>202159</v>
+        <v>56214</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2384,10 +2389,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D14" s="7">
-        <v>25455</v>
+        <v>108341</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2399,10 +2404,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="I14" s="7">
-        <v>30759</v>
+        <v>93818</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2414,10 +2419,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="N14" s="7">
-        <v>56214</v>
+        <v>202159</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2488,10 +2493,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>146855</v>
+        <v>34451</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2503,10 +2508,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>141775</v>
+        <v>50768</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2518,10 +2523,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>399</v>
+        <v>121</v>
       </c>
       <c r="N16" s="7">
-        <v>288629</v>
+        <v>85219</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2539,10 +2544,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7">
-        <v>34451</v>
+        <v>146855</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2554,10 +2559,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="I17" s="7">
-        <v>50768</v>
+        <v>141775</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2569,10 +2574,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>121</v>
+        <v>399</v>
       </c>
       <c r="N17" s="7">
-        <v>85219</v>
+        <v>288629</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2643,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>748</v>
+        <v>191</v>
       </c>
       <c r="D19" s="7">
-        <v>497449</v>
+        <v>126565</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2658,10 +2663,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>680</v>
+        <v>212</v>
       </c>
       <c r="I19" s="7">
-        <v>458378</v>
+        <v>139640</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -2673,10 +2678,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1428</v>
+        <v>403</v>
       </c>
       <c r="N19" s="7">
-        <v>955827</v>
+        <v>266205</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -2694,10 +2699,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>191</v>
+        <v>748</v>
       </c>
       <c r="D20" s="7">
-        <v>126565</v>
+        <v>497449</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2709,10 +2714,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>212</v>
+        <v>680</v>
       </c>
       <c r="I20" s="7">
-        <v>139640</v>
+        <v>458378</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -2724,10 +2729,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>403</v>
+        <v>1428</v>
       </c>
       <c r="N20" s="7">
-        <v>266205</v>
+        <v>955827</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2788,6 +2793,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2808,8 +2818,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E12ED2-D698-47C1-9828-317F0DE6A01D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB4461-FBCE-4A60-8D35-08282AC8E235}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2825,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2926,49 +2936,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>20880</v>
+        <v>3574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>19886</v>
+        <v>1617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>40766</v>
+        <v>5191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2987,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>3574</v>
+        <v>20880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>1617</v>
+        <v>19886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>5191</v>
+        <v>40766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,49 +3091,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>95513</v>
+        <v>25387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>80480</v>
+        <v>26413</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>175993</v>
+        <v>51800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,49 +3142,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7">
-        <v>25387</v>
+        <v>95513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I8" s="7">
-        <v>26413</v>
+        <v>80480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="N8" s="7">
-        <v>51800</v>
+        <v>175994</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3226,7 @@
         <v>320</v>
       </c>
       <c r="N9" s="7">
-        <v>227793</v>
+        <v>227794</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3236,49 +3246,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>174119</v>
+        <v>30505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>156514</v>
+        <v>33269</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>493</v>
+        <v>95</v>
       </c>
       <c r="N10" s="7">
-        <v>330632</v>
+        <v>63775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3297,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>30505</v>
+        <v>174119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>33269</v>
+        <v>156514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
-        <v>95</v>
+        <v>493</v>
       </c>
       <c r="N11" s="7">
-        <v>63775</v>
+        <v>330632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,49 +3401,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>124299</v>
+        <v>31296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>115146</v>
+        <v>27454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>239446</v>
+        <v>58749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3452,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7">
-        <v>31296</v>
+        <v>124299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>27454</v>
+        <v>115146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="N14" s="7">
-        <v>58749</v>
+        <v>239446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,49 +3556,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>160804</v>
+        <v>43438</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>151221</v>
+        <v>51057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
-        <v>415</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>312025</v>
+        <v>94495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,49 +3607,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="D17" s="7">
-        <v>43438</v>
+        <v>160804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="I17" s="7">
-        <v>51057</v>
+        <v>151221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="N17" s="7">
-        <v>94495</v>
+        <v>312025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +3711,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>818</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7">
-        <v>575615</v>
+        <v>134200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
-        <v>753</v>
+        <v>201</v>
       </c>
       <c r="I19" s="7">
-        <v>523247</v>
+        <v>139810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
-        <v>1571</v>
+        <v>391</v>
       </c>
       <c r="N19" s="7">
-        <v>1098862</v>
+        <v>274010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,49 +3762,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>190</v>
+        <v>818</v>
       </c>
       <c r="D20" s="7">
-        <v>134200</v>
+        <v>575615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>753</v>
       </c>
       <c r="I20" s="7">
-        <v>139810</v>
+        <v>523247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
-        <v>391</v>
+        <v>1571</v>
       </c>
       <c r="N20" s="7">
-        <v>274010</v>
+        <v>1098862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,6 +3856,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3866,8 +3881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F1F69-C483-4B28-90C4-8B54743309E8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDFA6F5-2F2D-434E-96AC-DCA997C1DE62}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3883,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,49 +3999,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>21536</v>
+        <v>4038</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>14429</v>
+        <v>6418</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>35965</v>
+        <v>10456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4050,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>4038</v>
+        <v>21536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>6418</v>
+        <v>14429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>10456</v>
+        <v>35965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,49 +4154,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>91474</v>
+        <v>18291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>86353</v>
+        <v>15621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>177827</v>
+        <v>33912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,49 +4205,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>18291</v>
+        <v>91474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>15621</v>
+        <v>86353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="N8" s="7">
-        <v>33912</v>
+        <v>177827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +4309,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>171748</v>
+        <v>36982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
-        <v>249</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>156955</v>
+        <v>36248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
-        <v>501</v>
+        <v>119</v>
       </c>
       <c r="N10" s="7">
-        <v>328703</v>
+        <v>73230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,49 +4360,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>36982</v>
+        <v>171748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="I11" s="7">
-        <v>36248</v>
+        <v>156955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
-        <v>119</v>
+        <v>501</v>
       </c>
       <c r="N11" s="7">
-        <v>73230</v>
+        <v>328703</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,25 +4464,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>107643</v>
+        <v>35868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>289</v>
       </c>
       <c r="H13" s="7">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>110732</v>
+        <v>26308</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4476,22 +4491,22 @@
         <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M13" s="7">
+        <v>98</v>
+      </c>
+      <c r="N13" s="7">
+        <v>62176</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="M13" s="7">
-        <v>345</v>
-      </c>
-      <c r="N13" s="7">
-        <v>218375</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,49 +4515,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="D14" s="7">
-        <v>35868</v>
+        <v>107643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="7">
+        <v>185</v>
+      </c>
+      <c r="I14" s="7">
+        <v>110732</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="7">
-        <v>44</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26308</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>345</v>
+      </c>
+      <c r="N14" s="7">
+        <v>218375</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="M14" s="7">
-        <v>98</v>
-      </c>
-      <c r="N14" s="7">
-        <v>62176</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,49 +4619,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>146483</v>
+        <v>35856</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" s="7">
+        <v>52</v>
+      </c>
+      <c r="I16" s="7">
+        <v>37533</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="7">
-        <v>204</v>
-      </c>
-      <c r="I16" s="7">
-        <v>150672</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>104</v>
+      </c>
+      <c r="N16" s="7">
+        <v>73388</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M16" s="7">
-        <v>408</v>
-      </c>
-      <c r="N16" s="7">
-        <v>297156</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,49 +4670,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D17" s="7">
-        <v>35856</v>
+        <v>146483</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="7">
+        <v>204</v>
+      </c>
+      <c r="I17" s="7">
+        <v>150672</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>408</v>
+      </c>
+      <c r="N17" s="7">
+        <v>297156</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>37533</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M17" s="7">
-        <v>104</v>
-      </c>
-      <c r="N17" s="7">
-        <v>73388</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,49 +4774,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>765</v>
+        <v>192</v>
       </c>
       <c r="D19" s="7">
-        <v>538884</v>
+        <v>131035</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="7">
+        <v>189</v>
+      </c>
+      <c r="I19" s="7">
+        <v>122128</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>381</v>
+      </c>
+      <c r="N19" s="7">
+        <v>253163</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="7">
-        <v>778</v>
-      </c>
-      <c r="I19" s="7">
-        <v>519141</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1543</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1058025</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,49 +4825,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>192</v>
+        <v>765</v>
       </c>
       <c r="D20" s="7">
-        <v>131035</v>
+        <v>538884</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" s="7">
+        <v>778</v>
+      </c>
+      <c r="I20" s="7">
+        <v>519141</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1543</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1058025</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H20" s="7">
-        <v>189</v>
-      </c>
-      <c r="I20" s="7">
-        <v>122128</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M20" s="7">
-        <v>381</v>
-      </c>
-      <c r="N20" s="7">
-        <v>253163</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,6 +4919,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4924,8 +4944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3173AB2-197F-4AA9-B34F-256AD4BCD1EA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F939FA-F019-4A89-BECE-97CDF5A4FDC5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4941,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5042,49 +5062,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>4134</v>
+        <v>536</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>540</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1076</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4023</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8157</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,49 +5113,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>536</v>
+        <v>4134</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4023</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="7">
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8157</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>540</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1076</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,49 +5217,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>14217</v>
+        <v>1668</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3202</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4870</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9135</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M7" s="7">
-        <v>40</v>
-      </c>
-      <c r="N7" s="7">
-        <v>23351</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5268,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>1668</v>
+        <v>14217</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9135</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" s="7">
+        <v>40</v>
+      </c>
+      <c r="N8" s="7">
+        <v>23351</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3202</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M8" s="7">
-        <v>8</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4870</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,49 +5372,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>35661</v>
+        <v>12957</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6195</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>31</v>
+      </c>
+      <c r="N10" s="7">
+        <v>19152</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H10" s="7">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22900</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M10" s="7">
-        <v>89</v>
-      </c>
-      <c r="N10" s="7">
-        <v>58561</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5423,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>12957</v>
+        <v>35661</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="7">
+        <v>37</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22900</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>89</v>
+      </c>
+      <c r="N11" s="7">
+        <v>58561</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6195</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M11" s="7">
-        <v>31</v>
-      </c>
-      <c r="N11" s="7">
-        <v>19152</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,49 +5527,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>25253</v>
+        <v>4599</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5627</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M13" s="7">
+        <v>16</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10226</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19694</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="M13" s="7">
-        <v>61</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44947</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,49 +5578,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>4599</v>
+        <v>25253</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="7">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19694</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M14" s="7">
+        <v>61</v>
+      </c>
+      <c r="N14" s="7">
+        <v>44947</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5627</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M14" s="7">
-        <v>16</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10226</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,49 +5682,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>22069</v>
+        <v>5332</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4241</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M16" s="7">
+        <v>14</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9573</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24366</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M16" s="7">
-        <v>69</v>
-      </c>
-      <c r="N16" s="7">
-        <v>46435</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,49 +5733,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>5332</v>
+        <v>22069</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H17" s="7">
+        <v>36</v>
+      </c>
+      <c r="I17" s="7">
+        <v>24366</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M17" s="7">
+        <v>69</v>
+      </c>
+      <c r="N17" s="7">
+        <v>46435</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4241</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M17" s="7">
-        <v>14</v>
-      </c>
-      <c r="N17" s="7">
-        <v>9573</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,49 +5837,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>101333</v>
+        <v>25092</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="7">
+        <v>30</v>
+      </c>
+      <c r="I19" s="7">
+        <v>19806</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M19" s="7">
+        <v>71</v>
+      </c>
+      <c r="N19" s="7">
+        <v>44898</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="7">
-        <v>123</v>
-      </c>
-      <c r="I19" s="7">
-        <v>80117</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M19" s="7">
-        <v>270</v>
-      </c>
-      <c r="N19" s="7">
-        <v>181450</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,49 +5888,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="D20" s="7">
-        <v>25092</v>
+        <v>101333</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="7">
+        <v>123</v>
+      </c>
+      <c r="I20" s="7">
+        <v>80117</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M20" s="7">
+        <v>270</v>
+      </c>
+      <c r="N20" s="7">
+        <v>181450</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H20" s="7">
-        <v>30</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19806</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="M20" s="7">
-        <v>71</v>
-      </c>
-      <c r="N20" s="7">
-        <v>44898</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,6 +5982,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10036A3B-3F71-40CC-8DE3-636AEEE6E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4BE3C6-1F8C-467D-90C0-1C10397BE399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7707D8E6-AE29-4FE2-BC65-BF0F892F9B0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D672CBF0-F914-428E-A0FE-36BA0736C4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>31,64%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1243 +107,1243 @@
     <t>68,36%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2016 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>77,78%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA14473D-C6EA-4294-A879-EEBFE453B237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E147F37-97E3-4DEE-AC4B-756F84CB030C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2362,10 +2362,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -2374,13 +2374,13 @@
         <v>56214</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>108341</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -2410,13 +2410,13 @@
         <v>93818</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -2425,13 +2425,13 @@
         <v>202159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2499,13 @@
         <v>34451</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -2514,13 +2514,13 @@
         <v>50768</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -2529,13 +2529,13 @@
         <v>85219</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>146855</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -2565,13 +2565,13 @@
         <v>141775</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>399</v>
@@ -2580,13 +2580,13 @@
         <v>288629</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2654,13 @@
         <v>126565</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -2669,13 +2669,13 @@
         <v>139640</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>403</v>
@@ -2684,13 +2684,13 @@
         <v>266205</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2705,13 @@
         <v>497449</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>680</v>
@@ -2720,13 +2720,13 @@
         <v>458378</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1428</v>
@@ -2735,13 +2735,13 @@
         <v>955827</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB4461-FBCE-4A60-8D35-08282AC8E235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E30FF6-45C1-4E01-BC10-6A2F7C4B098E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2942,13 @@
         <v>3574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2957,13 +2957,13 @@
         <v>1617</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2972,13 +2972,13 @@
         <v>5191</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2993,13 @@
         <v>20880</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3008,13 +3008,13 @@
         <v>19886</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3023,13 +3023,13 @@
         <v>40766</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>25387</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -3112,13 +3112,13 @@
         <v>26413</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -3127,13 +3127,13 @@
         <v>51800</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3148,13 @@
         <v>95513</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -3163,13 +3163,13 @@
         <v>80480</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>247</v>
@@ -3178,13 +3178,13 @@
         <v>175994</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3252,13 @@
         <v>30505</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3267,13 +3267,13 @@
         <v>33269</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -3282,13 +3282,13 @@
         <v>63775</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>174119</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -3318,13 +3318,13 @@
         <v>156514</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>493</v>
@@ -3333,13 +3333,13 @@
         <v>330632</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3407,13 @@
         <v>31296</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3422,13 +3422,13 @@
         <v>27454</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -3437,13 +3437,13 @@
         <v>58749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3458,13 @@
         <v>124299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -3473,13 +3473,13 @@
         <v>115146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>370</v>
@@ -3488,13 +3488,13 @@
         <v>239446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3562,13 @@
         <v>43438</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3577,13 +3577,13 @@
         <v>51057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -3592,13 +3592,13 @@
         <v>94495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3613,13 @@
         <v>160804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -3628,13 +3628,13 @@
         <v>151221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>415</v>
@@ -3643,13 +3643,13 @@
         <v>312025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3717,13 @@
         <v>134200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -3732,13 +3732,13 @@
         <v>139810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>391</v>
@@ -3747,13 +3747,13 @@
         <v>274010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3768,13 @@
         <v>575615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>753</v>
@@ -3783,13 +3783,13 @@
         <v>523247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1571</v>
@@ -3798,13 +3798,13 @@
         <v>1098862</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDFA6F5-2F2D-434E-96AC-DCA997C1DE62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248D23B1-5324-48A3-97C8-AA199AD8B9A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4005,13 @@
         <v>4038</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4020,13 +4020,13 @@
         <v>6418</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4035,13 +4035,13 @@
         <v>10456</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4056,13 @@
         <v>21536</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -4071,13 +4071,13 @@
         <v>14429</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4086,13 +4086,13 @@
         <v>35965</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>18291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4175,13 +4175,13 @@
         <v>15621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -4190,13 +4190,13 @@
         <v>33912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>91474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -4226,13 +4226,13 @@
         <v>86353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>247</v>
@@ -4241,13 +4241,13 @@
         <v>177827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>36982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4330,13 +4330,13 @@
         <v>36248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -4345,13 +4345,13 @@
         <v>73230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>171748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>249</v>
@@ -4381,13 +4381,13 @@
         <v>156955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>501</v>
@@ -4396,13 +4396,13 @@
         <v>328703</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4470,13 @@
         <v>35868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4485,13 +4485,13 @@
         <v>26308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4500,13 +4500,13 @@
         <v>62176</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4521,13 @@
         <v>107643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>185</v>
@@ -4536,13 +4536,13 @@
         <v>110732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
@@ -4551,13 +4551,13 @@
         <v>218375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4625,13 @@
         <v>35856</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -4640,13 +4640,13 @@
         <v>37533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4655,13 +4655,13 @@
         <v>73388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4676,13 @@
         <v>146483</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -4691,13 +4691,13 @@
         <v>150672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>408</v>
@@ -4706,13 +4706,13 @@
         <v>297156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4780,13 @@
         <v>131035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>189</v>
@@ -4795,13 +4795,13 @@
         <v>122128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -4810,13 +4810,13 @@
         <v>253163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4831,13 @@
         <v>538884</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>778</v>
@@ -4846,13 +4846,13 @@
         <v>519141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>1543</v>
@@ -4861,13 +4861,13 @@
         <v>1058025</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F939FA-F019-4A89-BECE-97CDF5A4FDC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BBEC74-CB37-475A-A472-47BA17D36C35}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5068,13 @@
         <v>536</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5083,13 +5083,13 @@
         <v>540</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5098,13 +5098,13 @@
         <v>1076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5119,13 @@
         <v>4134</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5134,13 +5134,13 @@
         <v>4023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5149,13 +5149,13 @@
         <v>8157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>1668</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5238,13 +5238,13 @@
         <v>3202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5253,13 +5253,13 @@
         <v>4870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5274,13 @@
         <v>14217</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5289,13 +5289,13 @@
         <v>9135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5304,13 +5304,13 @@
         <v>23351</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5378,13 @@
         <v>12957</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5393,13 +5393,13 @@
         <v>6195</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -5408,13 +5408,13 @@
         <v>19152</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5429,13 @@
         <v>35661</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -5444,13 +5444,13 @@
         <v>22900</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -5459,13 +5459,13 @@
         <v>58561</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5533,13 @@
         <v>4599</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5548,13 +5548,13 @@
         <v>5627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -5563,13 +5563,13 @@
         <v>10226</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5584,13 @@
         <v>25253</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5599,7 +5599,7 @@
         <v>19694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>394</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4BE3C6-1F8C-467D-90C0-1C10397BE399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B784D429-CBFB-4B6B-A2C6-A204E9EF72DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D672CBF0-F914-428E-A0FE-36BA0736C4DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6DD6813-5826-48FE-ABE1-25A8D9F84119}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2007 (Tasa respuesta: 87,02%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1282 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2016 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2016 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E147F37-97E3-4DEE-AC4B-756F84CB030C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473FE23B-9030-4AF3-A33D-A7B233869EFC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>7020</v>
+        <v>27715</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>2533</v>
+        <v>29131</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>9553</v>
+        <v>56846</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7">
-        <v>15166</v>
+        <v>87830</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I5" s="7">
-        <v>16971</v>
+        <v>99866</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="N5" s="7">
-        <v>32137</v>
+        <v>187696</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>115545</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>128997</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>244542</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>22111</v>
+        <v>30398</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>25182</v>
+        <v>37528</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N7" s="7">
-        <v>47293</v>
+        <v>67926</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D8" s="7">
-        <v>84700</v>
+        <v>134955</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="I8" s="7">
-        <v>70859</v>
+        <v>142388</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="N8" s="7">
-        <v>155559</v>
+        <v>277343</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="I9" s="7">
-        <v>96041</v>
+        <v>179916</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>304</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>202852</v>
+        <v>345269</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>37528</v>
+        <v>30759</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>30398</v>
+        <v>25455</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2213,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>67926</v>
+        <v>56214</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2234,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>142388</v>
+        <v>93818</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2249,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="I11" s="7">
-        <v>134955</v>
+        <v>108341</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2264,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>433</v>
+        <v>321</v>
       </c>
       <c r="N11" s="7">
-        <v>277343</v>
+        <v>202159</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>179916</v>
+        <v>124577</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>165353</v>
+        <v>133796</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="N12" s="7">
-        <v>345269</v>
+        <v>258373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>50768</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2353,34 +2152,34 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>30759</v>
+        <v>34451</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>56214</v>
+        <v>85219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7">
-        <v>108341</v>
+        <v>141775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="I14" s="7">
-        <v>93818</v>
+        <v>146855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="N14" s="7">
-        <v>202159</v>
+        <v>288629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>133796</v>
+        <v>192543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>124577</v>
+        <v>181306</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N15" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>34451</v>
+        <v>139640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="I16" s="7">
-        <v>50768</v>
+        <v>126565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>121</v>
+        <v>403</v>
       </c>
       <c r="N16" s="7">
-        <v>85219</v>
+        <v>266205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>216</v>
+        <v>680</v>
       </c>
       <c r="D17" s="7">
-        <v>146855</v>
+        <v>458378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>183</v>
+        <v>748</v>
       </c>
       <c r="I17" s="7">
-        <v>141775</v>
+        <v>497449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>399</v>
+        <v>1428</v>
       </c>
       <c r="N17" s="7">
-        <v>288629</v>
+        <v>955827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>892</v>
       </c>
       <c r="D18" s="7">
-        <v>181306</v>
+        <v>598018</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>939</v>
       </c>
       <c r="I18" s="7">
-        <v>192543</v>
+        <v>624014</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>520</v>
+        <v>1831</v>
       </c>
       <c r="N18" s="7">
-        <v>373848</v>
+        <v>1222032</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>191</v>
-      </c>
-      <c r="D19" s="7">
-        <v>126565</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>212</v>
-      </c>
-      <c r="I19" s="7">
-        <v>139640</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>403</v>
-      </c>
-      <c r="N19" s="7">
-        <v>266205</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>748</v>
-      </c>
-      <c r="D20" s="7">
-        <v>497449</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>680</v>
-      </c>
-      <c r="I20" s="7">
-        <v>458378</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1428</v>
-      </c>
-      <c r="N20" s="7">
-        <v>955827</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>939</v>
-      </c>
-      <c r="D21" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>892</v>
-      </c>
-      <c r="I21" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E30FF6-45C1-4E01-BC10-6A2F7C4B098E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B43B0B-4DF4-48D3-AE55-79C811873160}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>3574</v>
+        <v>28030</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>1617</v>
+        <v>28961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>5191</v>
+        <v>56991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>20880</v>
+        <v>100366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>19886</v>
+        <v>116394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="N5" s="7">
-        <v>40766</v>
+        <v>216760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>128396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="I6" s="7">
-        <v>21503</v>
+        <v>145355</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>372</v>
       </c>
       <c r="N6" s="7">
-        <v>45957</v>
+        <v>273751</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>25387</v>
+        <v>33269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>26413</v>
+        <v>30505</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>51800</v>
+        <v>63775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>241</v>
+      </c>
+      <c r="D8" s="7">
+        <v>156514</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="7">
-        <v>95513</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7">
-        <v>80480</v>
+        <v>174119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>247</v>
+        <v>493</v>
       </c>
       <c r="N8" s="7">
-        <v>175994</v>
+        <v>330632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="D9" s="7">
-        <v>120900</v>
+        <v>189783</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="I9" s="7">
-        <v>106893</v>
+        <v>204624</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>588</v>
       </c>
       <c r="N9" s="7">
-        <v>227794</v>
+        <v>394407</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3249,46 +2892,46 @@
         <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>30505</v>
+        <v>27454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>33269</v>
+        <v>31296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>63775</v>
+        <v>58749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7">
-        <v>174119</v>
+        <v>115146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>156514</v>
+        <v>124299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>493</v>
+        <v>370</v>
       </c>
       <c r="N11" s="7">
-        <v>330632</v>
+        <v>239446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>204624</v>
+        <v>142600</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>189783</v>
+        <v>155595</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>394407</v>
+        <v>298195</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>31296</v>
+        <v>51057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>27454</v>
+        <v>43438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="N13" s="7">
-        <v>58749</v>
+        <v>94495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>124299</v>
+        <v>151221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>115146</v>
+        <v>160804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="N14" s="7">
-        <v>239446</v>
+        <v>312025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D15" s="7">
-        <v>155595</v>
+        <v>202278</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="I15" s="7">
-        <v>142600</v>
+        <v>204242</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="N15" s="7">
-        <v>298195</v>
+        <v>406520</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7">
-        <v>43438</v>
+        <v>139810</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="I16" s="7">
-        <v>51057</v>
+        <v>134200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>127</v>
+        <v>391</v>
       </c>
       <c r="N16" s="7">
-        <v>94495</v>
+        <v>274010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>217</v>
+        <v>753</v>
       </c>
       <c r="D17" s="7">
-        <v>160804</v>
+        <v>523247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>198</v>
+        <v>818</v>
       </c>
       <c r="I17" s="7">
-        <v>151221</v>
+        <v>575615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>415</v>
+        <v>1571</v>
       </c>
       <c r="N17" s="7">
-        <v>312025</v>
+        <v>1098862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>277</v>
+        <v>954</v>
       </c>
       <c r="D18" s="7">
-        <v>204242</v>
+        <v>663057</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>265</v>
+        <v>1008</v>
       </c>
       <c r="I18" s="7">
-        <v>202278</v>
+        <v>709815</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>542</v>
+        <v>1962</v>
       </c>
       <c r="N18" s="7">
-        <v>406520</v>
+        <v>1372872</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>190</v>
-      </c>
-      <c r="D19" s="7">
-        <v>134200</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>201</v>
-      </c>
-      <c r="I19" s="7">
-        <v>139810</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>391</v>
-      </c>
-      <c r="N19" s="7">
-        <v>274010</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>818</v>
-      </c>
-      <c r="D20" s="7">
-        <v>575615</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>753</v>
-      </c>
-      <c r="I20" s="7">
-        <v>523247</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1571</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1098862</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1008</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709815</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>954</v>
-      </c>
-      <c r="I21" s="7">
-        <v>663057</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1962</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1372872</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248D23B1-5324-48A3-97C8-AA199AD8B9A5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BD7CA-EA59-44FB-8FCE-2EF548F497FE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>4038</v>
+        <v>22040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>6418</v>
+        <v>22329</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>10456</v>
+        <v>44368</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D5" s="7">
-        <v>21536</v>
+        <v>100781</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>14429</v>
+        <v>113010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="N5" s="7">
-        <v>35965</v>
+        <v>213792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>122821</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>135339</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>258160</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>18291</v>
+        <v>36248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>15621</v>
+        <v>36982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>33912</v>
+        <v>73230</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>91474</v>
+        <v>156955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7">
-        <v>86353</v>
+        <v>171748</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>247</v>
+        <v>501</v>
       </c>
       <c r="N8" s="7">
-        <v>177827</v>
+        <v>328703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>109765</v>
+        <v>193203</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>101974</v>
+        <v>208730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="N9" s="7">
-        <v>211739</v>
+        <v>401933</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>36982</v>
+        <v>26308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>36248</v>
+        <v>35868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>73230</v>
+        <v>62176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="D11" s="7">
-        <v>171748</v>
+        <v>110732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
+        <v>160</v>
+      </c>
+      <c r="I11" s="7">
+        <v>107643</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="7">
+        <v>345</v>
+      </c>
+      <c r="N11" s="7">
+        <v>218375</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="7">
-        <v>156955</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M11" s="7">
-        <v>501</v>
-      </c>
-      <c r="N11" s="7">
-        <v>328703</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>208730</v>
+        <v>137040</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>193203</v>
+        <v>143511</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>620</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>401933</v>
+        <v>280551</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>35868</v>
+        <v>37533</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>26308</v>
+        <v>35856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>62176</v>
+        <v>73388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>107643</v>
+        <v>150672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>110732</v>
+        <v>146483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="N14" s="7">
-        <v>218375</v>
+        <v>297156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>143511</v>
+        <v>188205</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>137040</v>
+        <v>182339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="N15" s="7">
-        <v>280551</v>
+        <v>370544</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7">
-        <v>35856</v>
+        <v>122128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="I16" s="7">
-        <v>37533</v>
+        <v>131035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="N16" s="7">
-        <v>73388</v>
+        <v>253163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>204</v>
+        <v>778</v>
       </c>
       <c r="D17" s="7">
-        <v>146483</v>
+        <v>519141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>204</v>
+        <v>765</v>
       </c>
       <c r="I17" s="7">
-        <v>150672</v>
+        <v>538884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
-        <v>408</v>
+        <v>1543</v>
       </c>
       <c r="N17" s="7">
-        <v>297156</v>
+        <v>1058025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>967</v>
       </c>
       <c r="D18" s="7">
-        <v>182339</v>
+        <v>641269</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>957</v>
       </c>
       <c r="I18" s="7">
-        <v>188205</v>
+        <v>669919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>512</v>
+        <v>1924</v>
       </c>
       <c r="N18" s="7">
-        <v>370544</v>
+        <v>1311188</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>192</v>
-      </c>
-      <c r="D19" s="7">
-        <v>131035</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>189</v>
-      </c>
-      <c r="I19" s="7">
-        <v>122128</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>381</v>
-      </c>
-      <c r="N19" s="7">
-        <v>253163</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>765</v>
-      </c>
-      <c r="D20" s="7">
-        <v>538884</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>778</v>
-      </c>
-      <c r="I20" s="7">
-        <v>519141</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1543</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1058025</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>957</v>
-      </c>
-      <c r="D21" s="7">
-        <v>669919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>967</v>
-      </c>
-      <c r="I21" s="7">
-        <v>641269</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1924</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1311188</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BBEC74-CB37-475A-A472-47BA17D36C35}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA4823C-B010-45C4-B657-F13288F46485}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>536</v>
+        <v>3751</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>540</v>
+        <v>2201</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>1076</v>
+        <v>5952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>4134</v>
+        <v>13303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>4023</v>
+        <v>19465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>8157</v>
+        <v>32768</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>1668</v>
+        <v>5798</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>3202</v>
+        <v>12851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>4870</v>
+        <v>18650</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>14217</v>
+        <v>23177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7">
-        <v>9135</v>
+        <v>36885</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>23351</v>
+        <v>60061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>12957</v>
+        <v>5640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>6195</v>
+        <v>4554</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>19152</v>
+        <v>10193</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>35661</v>
+        <v>20596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>22900</v>
+        <v>27126</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>58561</v>
+        <v>47724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>4599</v>
+        <v>4040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5627</v>
+        <v>5437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>10226</v>
+        <v>9476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>24009</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="7">
         <v>33</v>
       </c>
-      <c r="D14" s="7">
-        <v>25253</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H14" s="7">
-        <v>28</v>
-      </c>
       <c r="I14" s="7">
-        <v>19694</v>
+        <v>23073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N14" s="7">
-        <v>44947</v>
+        <v>47083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>5332</v>
+        <v>19229</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>4241</v>
+        <v>25042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>9573</v>
+        <v>44271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D17" s="7">
-        <v>22069</v>
+        <v>81085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="I17" s="7">
-        <v>24366</v>
+        <v>106550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="N17" s="7">
-        <v>46435</v>
+        <v>187635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>56008</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25092</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>30</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19806</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M19" s="7">
-        <v>71</v>
-      </c>
-      <c r="N19" s="7">
-        <v>44898</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>147</v>
-      </c>
-      <c r="D20" s="7">
-        <v>101333</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>123</v>
-      </c>
-      <c r="I20" s="7">
-        <v>80117</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>270</v>
-      </c>
-      <c r="N20" s="7">
-        <v>181450</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
